--- a/genphen/metabolome/breunig/Zhu_PLoS_Biol_10(4)_Table1.xlsx
+++ b/genphen/metabolome/breunig/Zhu_PLoS_Biol_10(4)_Table1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30780" yWindow="-5140" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="27880" yWindow="-5120" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -534,6 +534,9 @@
       <c r="C2">
         <v>91287</v>
       </c>
+      <c r="D2">
+        <v>4.0507400000000002</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -545,6 +548,9 @@
       <c r="C3">
         <v>91496</v>
       </c>
+      <c r="D3">
+        <v>15.4214</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -556,6 +562,9 @@
       <c r="C4">
         <v>76127</v>
       </c>
+      <c r="D4">
+        <v>8.3989999999999991</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -567,6 +576,9 @@
       <c r="C5">
         <v>91977</v>
       </c>
+      <c r="D5">
+        <v>5.6712800000000003</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -578,6 +590,9 @@
       <c r="C6">
         <v>91977</v>
       </c>
+      <c r="D6">
+        <v>5.8648499999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -589,6 +604,9 @@
       <c r="C7">
         <v>116812</v>
       </c>
+      <c r="D7">
+        <v>15.4214</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -600,6 +618,9 @@
       <c r="C8">
         <v>117705</v>
       </c>
+      <c r="D8">
+        <v>4.4737400000000003</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -611,6 +632,9 @@
       <c r="C9">
         <v>167506</v>
       </c>
+      <c r="D9">
+        <v>13.421200000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -622,6 +646,9 @@
       <c r="C10">
         <v>167506</v>
       </c>
+      <c r="D10">
+        <v>10.342499999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
@@ -633,6 +660,9 @@
       <c r="C11">
         <v>49894</v>
       </c>
+      <c r="D11">
+        <v>11.103199999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
@@ -644,6 +674,9 @@
       <c r="C12">
         <v>49903</v>
       </c>
+      <c r="D12">
+        <v>10.728</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -655,6 +688,9 @@
       <c r="C13">
         <v>46070</v>
       </c>
+      <c r="D13">
+        <v>4.0033300000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
@@ -666,6 +702,9 @@
       <c r="C14">
         <v>175594</v>
       </c>
+      <c r="D14">
+        <v>4.3821700000000003</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
@@ -677,6 +716,9 @@
       <c r="C15">
         <v>59733</v>
       </c>
+      <c r="D15">
+        <v>8.7185100000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
@@ -688,8 +730,11 @@
       <c r="C16">
         <v>174364</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>6.0311199999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -698,6 +743,9 @@
       </c>
       <c r="C17">
         <v>89229</v>
+      </c>
+      <c r="D17">
+        <v>4.4839700000000002</v>
       </c>
     </row>
   </sheetData>
